--- a/Latihan 2 SimDig.xlsx
+++ b/Latihan 2 SimDig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikasi\SIMDIG 2021\TUGAS SEKOLAH\SIMDIG 10 rpl 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAB9220-3B27-4CED-B981-D6438DC3484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raport" sheetId="12" r:id="rId1"/>
@@ -34,17 +35,24 @@
     <definedName name="spisos12tbsm1">'[1]sikap spiritual n sosial'!$A$4:$G$26</definedName>
     <definedName name="SSHTBSM2">'[2]sikap spiritual'!$A$4:$H$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="117">
   <si>
     <t>NO</t>
   </si>
@@ -393,11 +401,14 @@
   <si>
     <t>d</t>
   </si>
+  <si>
+    <t>keterampilan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,15 +662,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -671,11 +673,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,16 +697,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5064,11 +5075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="E1" zoomScale="70" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="80" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5844,9 +5855,9 @@
     <col min="16128" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="23">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>80</v>
@@ -5856,7 +5867,7 @@
       </c>
       <c r="D1" s="24" t="str">
         <f>VLOOKUP(A1,lgrtbsm,3)</f>
-        <v>ADAM RIZKI HIDAYAT SIMANULANG</v>
+        <v>MUHAMMAD ROZI</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="26"/>
@@ -5868,7 +5879,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>84</v>
       </c>
@@ -5883,7 +5894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>87</v>
       </c>
@@ -5894,33 +5905,33 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="29" t="s">
         <v>93</v>
       </c>
@@ -5948,22 +5959,25 @@
       <c r="M6" s="24" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="R6" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="24" t="s">
         <v>112</v>
       </c>
@@ -5976,16 +5990,28 @@
       <c r="P7" s="24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="29">
         <v>80</v>
       </c>
@@ -6010,26 +6036,50 @@
         <v>B</v>
       </c>
       <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>2</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="29">
         <v>75</v>
       </c>
       <c r="F9" s="30">
         <f>VLOOKUP(A1,lgrtbsm,7)</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G9" s="29" t="str">
         <f t="shared" ref="G9:G12" si="0">IF(F9&gt;=92,"A",IF(F9&gt;=86,"B",IF(F9&gt;=80,"C","D")))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="29">
@@ -6037,33 +6087,57 @@
       </c>
       <c r="J9" s="29">
         <f>VLOOKUP(A1,lgrtbsm,8)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K9" s="29" t="str">
         <f>IF(J9&gt;=92,"A",IF(J9&gt;=84,"B",IF(J9&gt;=75,"C","D")))</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>3</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="29">
         <v>75</v>
       </c>
       <c r="F10" s="30">
         <f>VLOOKUP(A1,lgrtbsm,9)</f>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G10" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="29">
@@ -6071,33 +6145,57 @@
       </c>
       <c r="J10" s="29">
         <f>VLOOKUP(A1,lgrtbsm,10)</f>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K10" s="29" t="str">
         <f t="shared" ref="K10:K12" si="1">IF(J10&gt;=92,"A",IF(J10&gt;=84,"B",IF(J10&gt;=75,"C","D")))</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>4</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="29">
         <v>75</v>
       </c>
       <c r="F11" s="30">
         <f>VLOOKUP(A1,lgrtbsm,11)</f>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="29">
@@ -6105,33 +6203,57 @@
       </c>
       <c r="J11" s="29">
         <f>VLOOKUP(A1,lgrtbsm,12)</f>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K11" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>5</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="29">
         <v>75</v>
       </c>
       <c r="F12" s="30">
         <f>VLOOKUP(A1,lgrtbsm,13)</f>
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G12" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="29">
@@ -6146,48 +6268,72 @@
         <v>C</v>
       </c>
       <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="M12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-    </row>
-    <row r="15" spans="1:16" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>1</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="29">
         <v>80</v>
       </c>
@@ -6205,29 +6351,53 @@
       </c>
       <c r="J15" s="29">
         <f>VLOOKUP(A1,lgrtbsm,16)</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K15" s="29" t="str">
         <f>IF(J15&gt;=92,"A",IF(J15&gt;=86,"B",IF(J15&gt;=80,"C","D")))</f>
         <v>C</v>
       </c>
       <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>2</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="29">
         <v>80</v>
       </c>
       <c r="F16" s="30">
         <f>VLOOKUP(A1,lgrtbsm,17)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G16" s="29" t="str">
         <f t="shared" ref="G16:G19" si="2">IF(A16&gt;=92,"A",IF(A16&gt;=86,"B",IF(A16&gt;=80,"C","D")))</f>
@@ -6239,29 +6409,53 @@
       </c>
       <c r="J16" s="29">
         <f>VLOOKUP(A1,lgrtbsm,18)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K16" s="29" t="str">
         <f>IF(J16&gt;=92,"A",IF(J16&gt;=86,"B",IF(J16&gt;=80,"C","D")))</f>
         <v>C</v>
       </c>
       <c r="L16" s="31"/>
-    </row>
-    <row r="17" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="29">
         <v>80</v>
       </c>
       <c r="F17" s="30">
         <f>VLOOKUP(A1,lgrtbsm,19)</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G17" s="29" t="str">
         <f t="shared" si="2"/>
@@ -6273,29 +6467,53 @@
       </c>
       <c r="J17" s="29">
         <f>VLOOKUP(A1,lgrtbsm,20)</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K17" s="29" t="str">
         <f t="shared" ref="K17:K19" si="3">IF(J17&gt;=92,"A",IF(J17&gt;=86,"B",IF(J17&gt;=80,"C","D")))</f>
         <v>C</v>
       </c>
       <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>4</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="29">
         <v>80</v>
       </c>
       <c r="F18" s="30">
         <f>VLOOKUP(A1,lgrtbsm,21)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G18" s="29" t="str">
         <f t="shared" si="2"/>
@@ -6307,29 +6525,53 @@
       </c>
       <c r="J18" s="29">
         <f>VLOOKUP(A1,lgrtbsm,22)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K18" s="29" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
       <c r="L18" s="31"/>
-    </row>
-    <row r="19" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>5</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="29">
         <v>80</v>
       </c>
       <c r="F19" s="30">
         <f>VLOOKUP(A1,lgrtbsm,23)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" s="29" t="str">
         <f t="shared" si="2"/>
@@ -6341,15 +6583,39 @@
       </c>
       <c r="J19" s="29">
         <f>VLOOKUP(A1,lgrtbsm,24)</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="L19" s="31"/>
-    </row>
-    <row r="20" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -6363,7 +6629,7 @@
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -6375,7 +6641,7 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -6387,61 +6653,61 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -6671,11 +6937,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:D6"/>
@@ -6688,13 +6949,18 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.55118110236220474" top="1.6535433070866143" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>legger!$A$11:$A$27</xm:f>
           </x14:formula1>
@@ -6707,7 +6973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="D28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7404,7 +7670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7419,116 +7685,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -7605,136 +7871,136 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47" t="s">
+      <c r="J7" s="48"/>
+      <c r="K7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47" t="s">
+      <c r="L7" s="48"/>
+      <c r="M7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="46" t="s">
+      <c r="N7" s="48"/>
+      <c r="O7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46" t="s">
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46" t="s">
+      <c r="R7" s="47"/>
+      <c r="S7" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46" t="s">
+      <c r="T7" s="47"/>
+      <c r="U7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46" t="s">
+      <c r="V7" s="47"/>
+      <c r="W7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="46"/>
+      <c r="X7" s="47"/>
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47">
         <v>80</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46">
+      <c r="F9" s="47"/>
+      <c r="G9" s="47">
         <v>75</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46">
+      <c r="H9" s="47"/>
+      <c r="I9" s="47">
         <v>75</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46">
+      <c r="J9" s="47"/>
+      <c r="K9" s="47">
         <v>75</v>
       </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46">
+      <c r="L9" s="47"/>
+      <c r="M9" s="47">
         <v>75</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46">
+      <c r="N9" s="47"/>
+      <c r="O9" s="47">
         <v>80</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46">
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47">
         <v>80</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46">
+      <c r="R9" s="47"/>
+      <c r="S9" s="47">
         <v>80</v>
       </c>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46">
+      <c r="T9" s="47"/>
+      <c r="U9" s="47">
         <v>80</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46">
+      <c r="V9" s="47"/>
+      <c r="W9" s="47">
         <v>80</v>
       </c>
-      <c r="X9" s="46"/>
+      <c r="X9" s="47"/>
     </row>
     <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
@@ -9022,6 +9288,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="A4:X4"/>
     <mergeCell ref="A3:X3"/>
     <mergeCell ref="A2:X2"/>
@@ -9038,18 +9316,6 @@
     <mergeCell ref="Q7:R8"/>
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9057,11 +9323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9749,11 +10015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10420,25 +10686,25 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -11269,11 +11535,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11967,7 +12233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -12654,7 +12920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
